--- a/EARTH/Assets/ExcelDB/DialogDB.xlsx
+++ b/EARTH/Assets/ExcelDB/DialogDB.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\junheeStudy\2D_Platfomer\EARTH\Assets\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\준희 저장\2D_Platfomer\EARTH\Assets\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B1EC90-BC26-4607-957D-B262DA9ED6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="2610" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -732,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -1008,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -1054,4 +1054,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EARTH/Assets/ExcelDB/DialogDB.xlsx
+++ b/EARTH/Assets/ExcelDB/DialogDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\Desktop\준희 저장\2D_Platfomer\EARTH\Assets\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingu-103\junhee\2D_Platfomer\EARTH\Assets\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,7 +536,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1058,21 +1060,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1119,6 +1118,212 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
